--- a/MedicalLink/Templates/BC_37_DoanhThuTheoLoaiHinhDichVu_TongHop.xlsx
+++ b/MedicalLink/Templates/BC_37_DoanhThuTheoLoaiHinhDichVu_TongHop.xlsx
@@ -623,18 +623,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="F1" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.85546875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="38.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="56.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" style="1" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="19.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="6.28515625" style="1" hidden="1" customWidth="1"/>
     <col min="7" max="9" width="19.140625" style="1" customWidth="1"/>
     <col min="10" max="10" width="15.140625" style="11" hidden="1" customWidth="1"/>
     <col min="11" max="16384" width="8.85546875" style="1"/>
@@ -737,25 +737,25 @@
       </c>
       <c r="B6" s="23"/>
       <c r="C6" s="9">
-        <f>SUM(C5:C5)</f>
+        <f>SUM(C5:C5)/2</f>
         <v>0</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9">
-        <f>SUM(E5:E5)</f>
+        <f>SUM(E5:E5)/2</f>
         <v>0</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9">
-        <f>SUM(G5:G5)</f>
+        <f>SUM(G5:G5)/2</f>
         <v>0</v>
       </c>
       <c r="H6" s="9">
-        <f>SUM(H5:H5)</f>
+        <f>SUM(H5:H5)/2</f>
         <v>0</v>
       </c>
       <c r="I6" s="9">
-        <f>SUM(I5:I5)</f>
+        <f>SUM(I5:I5)/2</f>
         <v>0</v>
       </c>
       <c r="J6" s="14"/>
